--- a/files/2016-10-16-sestajovicka-sestka-vysledky-ml.xlsx
+++ b/files/2016-10-16-sestajovicka-sestka-vysledky-ml.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="904"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="904" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="100m" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">' Canicross do 10 kg Ž'!$A$3:$K$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'100m'!$A$3:$I$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1500m'!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1500m'!$A$3:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'200m'!$A$3:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3000JM'!$A$3:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3000JŽ'!$A$3:$H$9</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="259">
   <si>
     <t>Jméno</t>
   </si>
@@ -1042,7 +1042,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,7 +1084,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,6 +1117,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1433,7 +1436,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -1449,30 +1452,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2075,29 +2078,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,29 +2306,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,30 +2422,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3650,29 +3653,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4166,29 +4169,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4282,32 +4285,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -4777,32 +4780,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -4989,33 +4992,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,32 +5229,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -5442,30 +5445,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -5910,30 +5913,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7584,30 +7587,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8128,8 +8131,8 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8144,30 +8147,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8223,128 +8226,128 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="D5" s="30">
         <v>2005</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>167</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F5" s="30"/>
       <c r="G5" s="30">
         <v>1500</v>
       </c>
-      <c r="H5" s="33">
-        <v>0.2673611111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="32">
+        <v>0.27708333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D6" s="30">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="30"/>
+        <v>199</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="G6" s="30">
         <v>1500</v>
       </c>
       <c r="H6" s="32">
-        <v>0.27708333333333335</v>
+        <v>0.29305555555555557</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D7" s="9">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G7" s="9">
         <v>1500</v>
       </c>
       <c r="H7" s="18">
-        <v>0.29305555555555557</v>
+        <v>0.32569444444444445</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D8" s="9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>187</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9">
         <v>1500</v>
       </c>
       <c r="H8" s="18">
-        <v>0.32569444444444445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2007</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+        <v>0.32916666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2005</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="27">
         <v>1500</v>
       </c>
-      <c r="H9" s="18">
-        <v>0.32916666666666666</v>
+      <c r="H9" s="46" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8422,9 +8425,9 @@
       <c r="H14" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3">
-    <sortState ref="A4:I14">
-      <sortCondition ref="H3"/>
+  <autoFilter ref="A3:I11">
+    <sortState ref="A4:I11">
+      <sortCondition ref="H3:H11"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -8432,12 +8435,12 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E7" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId7"/>
@@ -8467,30 +8470,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8705,30 +8708,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8915,30 +8918,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -9035,29 +9038,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
